--- a/reports/templates/daily.xlsx
+++ b/reports/templates/daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicestone/Sites/minimars-server/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0C1353-06F6-8B40-B592-8710C43737DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358903ED-9225-A243-BDA1-B77C97F61251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1000" windowWidth="26840" windowHeight="16440" xr2:uid="{4F58C902-78D5-2145-A3CE-3267BB3BABFE}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
-  <si>
-    <t>门店</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
   <si>
     <t>天山店</t>
   </si>
@@ -452,18 +449,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>票务订单数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${TS_guestPlayAmount}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>散客+平台订单收款（未使用卡和余额支付的订单）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仅自营次卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,7 +473,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>散客办卡口径待确认</t>
+    <t>餐饮销售额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TS_foodSalesAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${JN_foodSalesAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${HX_foodSalesAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BY_foodSalesAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DY_foodSalesAmount}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8EA64C-3023-A04F-8D77-D73A58D0B3BC}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:F38"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -913,7 +922,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21">
       <c r="A1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -922,97 +931,90 @@
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="e">
         <f t="shared" ref="B6:F6" si="0">B7+B8+B9</f>
@@ -1037,299 +1039,309 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="e">
-        <f>B14/(B12+B14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="7" t="e">
-        <f>C14/(C12+C14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="7" t="e">
-        <f>D14/(D12+D14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="7" t="e">
-        <f t="shared" ref="E13:F13" si="1">E14/(E12+E14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>142</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="7" t="e">
+        <f>B15/(B13+B15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C14" s="7" t="e">
+        <f>C15/(C13+C15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="7" t="e">
+        <f>D15/(D13+D15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="7" t="e">
+        <f t="shared" ref="E14:F14" si="1">E15/(E13+E15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="e">
-        <f t="shared" ref="B18:F18" si="2">B19+B20+B21+B24+B28+B29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C18" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E18" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>139</v>
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="e">
+        <f t="shared" ref="B19:F19" si="2">B20+B21+B22+B25+B29+B30</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1339,37 +1351,37 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>118</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1379,7 +1391,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1389,7 +1401,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1399,7 +1411,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1407,212 +1419,222 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="6" t="e">
-        <f>B33/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C31" s="6" t="e">
-        <f>C33/C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" s="6" t="e">
-        <f>D33/D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E31" s="6" t="e">
-        <f>E33/E3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="6" t="e">
-        <f>F33/F3</f>
-        <v>#VALUE!</v>
-      </c>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>123</v>
+        <v>24</v>
+      </c>
+      <c r="B32" s="6" t="e">
+        <f>B34/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C32" s="6" t="e">
+        <f>C34/C3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D32" s="6" t="e">
+        <f>D34/D3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E32" s="6" t="e">
+        <f>E34/E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" s="6" t="e">
+        <f>F34/F3</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>128</v>
+        <v>25</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="7" t="e">
-        <f>B34/B33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C35" s="7" t="e">
-        <f>C34/C33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D35" s="7" t="e">
-        <f>D34/D33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E35" s="7" t="e">
-        <f>E34/E33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F35" s="7" t="e">
-        <f>F34/F33</f>
-        <v>#VALUE!</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" t="s">
-        <v>141</v>
+        <v>28</v>
+      </c>
+      <c r="B36" s="7" t="e">
+        <f>B35/B34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C36" s="7" t="e">
+        <f>C35/C34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D36" s="7" t="e">
+        <f>D35/D34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" s="7" t="e">
+        <f>E35/E34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" s="7" t="e">
+        <f>F35/F34</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="7" t="e">
-        <f>B36/B33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C38" s="7" t="e">
-        <f t="shared" ref="C38:F38" si="3">C36/C33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" s="7" t="e">
+        <v>30</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="7" t="e">
+        <f>B37/B34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C39" s="7" t="e">
+        <f t="shared" ref="C39:F39" si="3">C37/C34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E38" s="7" t="e">
+      <c r="E39" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F38" s="7" t="e">
+      <c r="F39" s="7" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="7" t="e">
-        <f>B42/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C41" s="7" t="e">
-        <f t="shared" ref="C41:F41" si="4">C42/C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D41" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E41" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" s="7" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="7" t="e">
+        <f>B43/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" s="7" t="e">
+        <f>C43/C3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" s="7" t="e">
+        <f>D43/D3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E42" s="7" t="e">
+        <f>E43/E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" s="7" t="e">
+        <f>F43/F3</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/reports/templates/daily.xlsx
+++ b/reports/templates/daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicestone/Sites/minimars-server/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358903ED-9225-A243-BDA1-B77C97F61251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC797D3E-3CB1-4147-91C0-0169F88E1A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1000" windowWidth="26840" windowHeight="16440" xr2:uid="{4F58C902-78D5-2145-A3CE-3267BB3BABFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="151">
   <si>
     <t>天山店</t>
   </si>
@@ -494,6 +494,30 @@
   </si>
   <si>
     <t>${DY_foodSalesAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动销售额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TS_eventAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${JN_eventAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${HX_eventAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BY_eventAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DY_eventAmount}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8EA64C-3023-A04F-8D77-D73A58D0B3BC}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1119,110 +1143,107 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7" t="e">
-        <f>B15/(B13+B15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C14" s="7" t="e">
-        <f>C15/(C13+C15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" s="7" t="e">
-        <f>D15/(D13+D15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" s="7" t="e">
-        <f t="shared" ref="E14:F14" si="1">E15/(E13+E15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>134</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="e">
+        <f>B16/(B14+B16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" s="7" t="e">
+        <f>C16/(C14+C16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="7" t="e">
+        <f>D16/(D14+D16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="7" t="e">
+        <f t="shared" ref="E15:F15" si="1">E16/(E14+E16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>134</v>
@@ -1230,128 +1251,141 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="e">
-        <f t="shared" ref="B19:F19" si="2">B20+B21+B22+B25+B29+B30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>136</v>
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="e">
+        <f t="shared" ref="B20:F20" si="2">B21+B22+B23+B26+B30+B31</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1361,37 +1395,37 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1401,7 +1435,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1411,7 +1445,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1421,7 +1455,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1429,211 +1463,221 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="6" t="e">
-        <f>B34/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C32" s="6" t="e">
-        <f>C34/C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" s="6" t="e">
-        <f>D34/D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E32" s="6" t="e">
-        <f>E34/E3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F32" s="6" t="e">
-        <f>F34/F3</f>
-        <v>#VALUE!</v>
-      </c>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>122</v>
+        <v>24</v>
+      </c>
+      <c r="B33" s="6" t="e">
+        <f>B35/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C33" s="6" t="e">
+        <f>C35/C3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" s="6" t="e">
+        <f>D35/D3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" s="6" t="e">
+        <f>E35/E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" s="6" t="e">
+        <f>F35/F3</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>127</v>
+        <v>25</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="7" t="e">
-        <f>B35/B34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C36" s="7" t="e">
-        <f>C35/C34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" s="7" t="e">
-        <f>D35/D34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E36" s="7" t="e">
-        <f>E35/E34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F36" s="7" t="e">
-        <f>F35/F34</f>
-        <v>#VALUE!</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" t="s">
-        <v>138</v>
+        <v>28</v>
+      </c>
+      <c r="B37" s="7" t="e">
+        <f>B36/B35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C37" s="7" t="e">
+        <f>C36/C35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" s="7" t="e">
+        <f>D36/D35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E37" s="7" t="e">
+        <f>E36/E35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" s="7" t="e">
+        <f>F36/F35</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="7" t="e">
-        <f>B37/B34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C39" s="7" t="e">
-        <f t="shared" ref="C39:F39" si="3">C37/C34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D39" s="7" t="e">
+      <c r="B40" s="7" t="e">
+        <f>B38/B35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" s="7" t="e">
+        <f t="shared" ref="C40:F40" si="3">C38/C35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E39" s="7" t="e">
+      <c r="E40" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F39" s="7" t="e">
+      <c r="F40" s="7" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="7" t="e">
-        <f>B43/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C42" s="7" t="e">
-        <f>C43/C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D42" s="7" t="e">
-        <f>D43/D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E42" s="7" t="e">
-        <f>E43/E3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F42" s="7" t="e">
-        <f>F43/F3</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="7" t="e">
+        <f>B44/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="7" t="e">
+        <f>C44/C3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43" s="7" t="e">
+        <f>D44/D3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E43" s="7" t="e">
+        <f>E44/E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" s="7" t="e">
+        <f>F44/F3</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
         <v>36</v>
       </c>
     </row>

--- a/reports/templates/daily.xlsx
+++ b/reports/templates/daily.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicestone/Sites/minimars-server/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC797D3E-3CB1-4147-91C0-0169F88E1A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7189C33-9524-5540-8C33-AB7B7EB0BEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="26840" windowHeight="16440" xr2:uid="{4F58C902-78D5-2145-A3CE-3267BB3BABFE}"/>
+    <workbookView xWindow="4320" yWindow="960" windowWidth="26840" windowHeight="16440" xr2:uid="{4F58C902-78D5-2145-A3CE-3267BB3BABFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
   <si>
     <t>天山店</t>
   </si>
@@ -48,9 +48,6 @@
     <t>到店人数</t>
   </si>
   <si>
-    <t>散客入场组数</t>
-  </si>
-  <si>
     <t>散客转化率</t>
   </si>
   <si>
@@ -138,10 +135,6 @@
     <t>派对执行场次</t>
   </si>
   <si>
-    <t>散客入场销售额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会员卡销售额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,23 +494,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${TS_eventAmount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${JN_eventAmount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${HX_eventAmount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BY_eventAmount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${DY_eventAmount}</t>
+    <t>散客销售额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台销售额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TS_couponPlayAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${JN_couponPlayAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${HX_couponPlayAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BY_couponPlayAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DY_couponPlayAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TS_eventSalesAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${JN_eventSalesAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${HX_eventSalesAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BY_eventSalesAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DY_eventSalesAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散客组数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台组数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TS_couponPlayBookingsCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${JN_couponPlayBookingsCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${HX_couponPlayBookingsCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BY_couponPlayBookingsCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DY_couponPlayBookingsCount}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8EA64C-3023-A04F-8D77-D73A58D0B3BC}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -946,7 +995,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21">
       <c r="A1" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -971,461 +1020,472 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>156</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="e">
+        <f t="shared" ref="B9:F9" si="0">B10+B11+B12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" s="2" t="e">
+        <f>C10+C11+C12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="2" t="e">
-        <f t="shared" ref="B6:F6" si="0">B7+B8+B9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C6" s="2" t="e">
-        <f>C7+C8+C9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D6" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E6" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F6" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="B11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>82</v>
+        <v>143</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7" t="e">
-        <f>B16/(B14+B16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C15" s="7" t="e">
-        <f>C16/(C14+C16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" s="7" t="e">
-        <f>D16/(D14+D16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" s="7" t="e">
-        <f t="shared" ref="E15:F15" si="1">E16/(E14+E16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>134</v>
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>134</v>
+        <v>7</v>
+      </c>
+      <c r="B17" s="7" t="e">
+        <f>B18/(B5+B7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" s="7" t="e">
+        <f t="shared" ref="C17:F17" si="1">C18/(C5+C7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2" t="e">
-        <f t="shared" ref="B20:F20" si="2">B21+B22+B23+B26+B30+B31</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C20" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D20" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E20" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>107</v>
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="e">
+        <f t="shared" ref="B22:F22" si="2">B23+B24+B25+B28+B32+B33</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C22" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1435,17 +1495,27 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1455,7 +1525,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1465,7 +1535,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1473,212 +1543,232 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="6" t="e">
-        <f>B35/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C33" s="6" t="e">
-        <f>C35/C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" s="6" t="e">
-        <f>D35/D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E33" s="6" t="e">
-        <f>E35/E3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F33" s="6" t="e">
-        <f>F35/F3</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>122</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>127</v>
+        <v>23</v>
+      </c>
+      <c r="B35" s="6" t="e">
+        <f>B37/B4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C35" s="6" t="e">
+        <f>C37/C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D35" s="6" t="e">
+        <f>D37/D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E35" s="6" t="e">
+        <f>E37/E4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" s="6" t="e">
+        <f>F37/F4</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="7" t="e">
-        <f>B36/B35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C37" s="7" t="e">
-        <f>C36/C35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D37" s="7" t="e">
-        <f>D36/D35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E37" s="7" t="e">
-        <f>E36/E35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F37" s="7" t="e">
-        <f>F36/F35</f>
-        <v>#VALUE!</v>
+        <v>25</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="B39" s="7" t="e">
+        <f>B38/B37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C39" s="7" t="e">
+        <f>C38/C37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" s="7" t="e">
+        <f>D38/D37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E39" s="7" t="e">
+        <f>E38/E37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" s="7" t="e">
+        <f>F38/F37</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="7" t="e">
+        <f>B40/B37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" s="7" t="e">
+        <f t="shared" ref="C42:F42" si="3">C40/C37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E42" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="7" t="e">
-        <f>B38/B35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C40" s="7" t="e">
-        <f t="shared" ref="C40:F40" si="3">C38/C35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D40" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E40" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="7" t="e">
-        <f>B44/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C43" s="7" t="e">
-        <f>C44/C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D43" s="7" t="e">
-        <f>D44/D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E43" s="7" t="e">
-        <f>E44/E3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F43" s="7" t="e">
-        <f>F44/F3</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>132</v>
+      <c r="B45" s="7" t="e">
+        <f>B46/B4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C45" s="7" t="e">
+        <f>C46/C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D45" s="7" t="e">
+        <f>D46/D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E45" s="7" t="e">
+        <f>E46/E4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F45" s="7" t="e">
+        <f>F46/F4</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/reports/templates/daily.xlsx
+++ b/reports/templates/daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicestone/Sites/minimars-server/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38B7724-87A4-234B-AA98-64F0CAA57CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30796C63-4C3A-A546-A4DB-447B3CE3F203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="960" windowWidth="26840" windowHeight="16440" xr2:uid="{4F58C902-78D5-2145-A3CE-3267BB3BABFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
   <si>
     <t>天山店</t>
   </si>
@@ -525,6 +525,54 @@
   </si>
   <si>
     <t>- 派对其他收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐饮收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TS_foodAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${JN_foodAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${HX_foodAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BY_foodAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DY_foodAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TS_eventAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${JN_eventAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${HX_eventAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BY_eventAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DY_eventAmount}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8EA64C-3023-A04F-8D77-D73A58D0B3BC}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1553,23 +1601,23 @@
         <v>11</v>
       </c>
       <c r="B38" s="2" t="e">
-        <f>B39+#REF!+#REF!+B40+B44+B45</f>
+        <f>B39+B40+B41+B42+B46+B47</f>
         <v>#VALUE!</v>
       </c>
       <c r="C38" s="2" t="e">
-        <f>C39+#REF!+#REF!+C40+C44+C45</f>
+        <f t="shared" ref="C38:F38" si="2">C39+C40+C41+C42+C46+C47</f>
         <v>#VALUE!</v>
       </c>
       <c r="D38" s="2" t="e">
-        <f>D39+#REF!+#REF!+D40+D44+D45</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="E38" s="2" t="e">
-        <f>E39+#REF!+#REF!+E40+E44+E45</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F38" s="2" t="e">
-        <f>F39+#REF!+#REF!+F40+F44+F45</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1598,47 +1646,69 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1647,8 +1717,8 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>144</v>
+      <c r="A44" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1657,14 +1727,34 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>14</v>
+      <c r="A45" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/reports/templates/daily.xlsx
+++ b/reports/templates/daily.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicestone/Sites/minimars-server/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30796C63-4C3A-A546-A4DB-447B3CE3F203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0515CAC-6ECD-0E42-A3AE-CAE290C3B5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="960" windowWidth="26840" windowHeight="16440" xr2:uid="{4F58C902-78D5-2145-A3CE-3267BB3BABFE}"/>
+    <workbookView xWindow="3080" yWindow="1260" windowWidth="24400" windowHeight="16140" xr2:uid="{4F58C902-78D5-2145-A3CE-3267BB3BABFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
   <si>
     <t>天山店</t>
   </si>
@@ -508,10 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吧台销售储值卡数目前合并计入在15行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外拓收入（权责）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,6 +569,38 @@
   </si>
   <si>
     <t>${DY_eventAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组均人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金类收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TS_assets}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${JN_assets}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${HX_assets}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BY_assets}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DY_assets}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吧台销售储值卡数目前合并计入在17行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8EA64C-3023-A04F-8D77-D73A58D0B3BC}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:F38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1072,663 +1100,689 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B5" s="2" t="e">
+        <f>B3/B4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C5" s="2" t="e">
+        <f t="shared" ref="C5:F5" si="0">C3/C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E5" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="e">
-        <f t="shared" ref="B9:F9" si="0">B10+B11+B12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="2" t="e">
-        <f>C10+C11+C12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>52</v>
+      <c r="B10" s="2" t="e">
+        <f t="shared" ref="B10:F10" si="1">B11+B12+B13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" s="2" t="e">
+        <f>C11+C12+C13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>123</v>
+      <c r="A14" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>67</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="7" t="e">
-        <f>B18/(B5+B7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" s="7" t="e">
-        <f>C18/(C5+C7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D17" s="7" t="e">
-        <f>D18/(D5+D7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E17" s="7" t="e">
-        <f>E18/(E5+E7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="7" t="e">
-        <f>F18/(F5+F7)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>114</v>
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>114</v>
+        <v>7</v>
+      </c>
+      <c r="B19" s="7" t="e">
+        <f>B20/(B6+B8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" s="7" t="e">
+        <f>C20/(C6+C8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="7" t="e">
+        <f>D20/(D6+D8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="7" t="e">
+        <f>E20/(E6+E8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" s="7" t="e">
+        <f>F20/(F6+F8)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6" t="e">
-        <f>B24/B4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C22" s="6" t="e">
-        <f>C24/C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D22" s="6" t="e">
-        <f>D24/D4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" s="6" t="e">
-        <f>E24/E4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" s="6" t="e">
-        <f>F24/F4</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="6" t="e">
+        <f>B26/B4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" s="6" t="e">
+        <f>C26/C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" s="6" t="e">
+        <f>D26/D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" s="6" t="e">
+        <f>E26/E4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="6" t="e">
+        <f>F26/F4</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="7" t="e">
-        <f>B25/B24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C26" s="7" t="e">
-        <f>C25/C24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D26" s="7" t="e">
-        <f>D25/D24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E26" s="7" t="e">
-        <f>E25/E24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" s="7" t="e">
-        <f>F25/F24</f>
-        <v>#VALUE!</v>
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="7" t="e">
+        <f>B27/B26</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" s="7" t="e">
+        <f>C27/C26</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D28" s="7" t="e">
+        <f>D27/D26</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" s="7" t="e">
+        <f>E27/E26</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" s="7" t="e">
+        <f>F27/F26</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="7" t="e">
-        <f>B27/B24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C29" s="7" t="e">
-        <f t="shared" ref="C29:F29" si="1">C27/C24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E29" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="7" t="e">
+        <f>B29/B26</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C31" s="7" t="e">
+        <f t="shared" ref="C31:F31" si="2">C29/C26</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="7" t="e">
-        <f>B32/B4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C31" s="7" t="e">
-        <f>C32/C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" s="7" t="e">
-        <f>D32/D4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E31" s="7" t="e">
-        <f>E32/E4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="7" t="e">
-        <f>F32/F4</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>112</v>
+      <c r="B33" s="7" t="e">
+        <f>B34/B4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C33" s="7" t="e">
+        <f>C34/C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" s="7" t="e">
+        <f>D34/D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" s="7" t="e">
+        <f>E34/E4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" s="7" t="e">
+        <f>F34/F4</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="2" t="e">
-        <f>B39+B40+B41+B42+B46+B47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C38" s="2" t="e">
-        <f t="shared" ref="C38:F38" si="2">C39+C40+C41+C42+C46+C47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E38" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G40" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B40" s="2" t="e">
+        <f>B41+B42+B43+B44+B48+B49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" s="2" t="e">
+        <f t="shared" ref="C40:F40" si="3">C41+C42+C43+C44+C48+C49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E40" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F40" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1737,8 +1791,8 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>144</v>
+      <c r="A46" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1747,14 +1801,34 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>14</v>
+      <c r="A47" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/reports/templates/daily.xlsx
+++ b/reports/templates/daily.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicestone/Sites/minimars-server/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0515CAC-6ECD-0E42-A3AE-CAE290C3B5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B027032B-792E-7440-8211-DB3577389691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="1260" windowWidth="24400" windowHeight="16140" xr2:uid="{4F58C902-78D5-2145-A3CE-3267BB3BABFE}"/>
+    <workbookView xWindow="6000" yWindow="500" windowWidth="21480" windowHeight="17500" xr2:uid="{4F58C902-78D5-2145-A3CE-3267BB3BABFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,294 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>陆 秋石</author>
+  </authors>
+  <commentList>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{7060FA9F-2719-7948-9F25-29E2A577F04D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>陆</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>秋石</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>仅自营次卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{82C8BB21-270C-EB48-B614-0617B0686E19}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>陆</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>秋石</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>仅自营次卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{A68C7767-1E73-5D42-AAA6-4B261D105A91}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>陆</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>秋石</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>目前，系统没有单独统计吧台销售储值卡，需要手动申报</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{211F27FA-AE97-5346-ADBE-D23A79D8F2BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>陆</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>秋石</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>仍为支付时间，即预约支付记录计入支付日</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>天山店</t>
   </si>
@@ -54,9 +340,6 @@
     <t>散客办卡数</t>
   </si>
   <si>
-    <t>续卡组数</t>
-  </si>
-  <si>
     <t>总办卡及储值张数</t>
   </si>
   <si>
@@ -392,18 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仅自营次卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仍为支付时间，即预约支付记录计入支付日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>餐饮销售额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,7 +871,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吧台销售储值卡数目前合并计入在17行中</t>
+    <t>会员组数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TS_cardPlayBookingsCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${JN_cardPlayBookingsCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${HX_cardPlayBookingsCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BY_cardPlayBookingsCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DY_cardPlayBookingsCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员续卡率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员续卡数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +913,7 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -646,6 +945,21 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1015,11 +1329,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8EA64C-3023-A04F-8D77-D73A58D0B3BC}">
-  <dimension ref="A1:G49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8EA64C-3023-A04F-8D77-D73A58D0B3BC}">
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1029,7 +1343,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1053,28 +1367,25 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1082,25 +1393,25 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B5" s="2" t="e">
         <f>B3/B4</f>
@@ -1126,274 +1437,270 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="e">
-        <f t="shared" ref="B10:F10" si="1">B11+B12+B13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="2" t="e">
-        <f>C11+C12+C13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" s="2" t="e">
+        <v>162</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="e">
+        <f t="shared" ref="B11:F11" si="1">B12+B13+B14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="2" t="e">
+        <f>C12+C13+C14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E10" s="2" t="e">
+      <c r="E11" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F10" s="2" t="e">
+      <c r="F11" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="7" t="e">
-        <f>B20/(B6+B8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" s="7" t="e">
-        <f>C20/(C6+C8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="7" t="e">
-        <f>D20/(D6+D8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" s="7" t="e">
-        <f>E20/(E6+E8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="7" t="e">
-        <f>F20/(F6+F8)</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1401,408 +1708,430 @@
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>114</v>
+        <v>7</v>
+      </c>
+      <c r="B21" s="7" t="e">
+        <f>B20/(B6+B8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" s="7" t="e">
+        <f>C20/(C6+C8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" s="7" t="e">
+        <f>D20/(D6+D8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="7" t="e">
+        <f>E20/(E6+E8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="7" t="e">
+        <f>F20/(F6+F8)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>87</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="7" t="e">
+        <f>B22/(B10-B20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" s="7" t="e">
+        <f t="shared" ref="C23:F23" si="2">C22/(C10-C20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D23" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6" t="e">
-        <f>B26/B4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C24" s="6" t="e">
-        <f>C26/C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="6" t="e">
-        <f>D26/D4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" s="6" t="e">
-        <f>E26/E4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="6" t="e">
-        <f>F26/F4</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>102</v>
+        <v>9</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="B26" s="6" t="e">
+        <f>B28/B4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" s="6" t="e">
+        <f>C28/C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D26" s="6" t="e">
+        <f>D28/D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E26" s="6" t="e">
+        <f>E28/E4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" s="6" t="e">
+        <f>F28/F4</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="7" t="e">
-        <f>B27/B26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C28" s="7" t="e">
-        <f>C27/C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" s="7" t="e">
-        <f>D27/D26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E28" s="7" t="e">
-        <f>E27/E26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="7" t="e">
-        <f>F27/F26</f>
-        <v>#VALUE!</v>
+        <v>16</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B30" s="7" t="e">
+        <f>B29/B28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" s="7" t="e">
+        <f>C29/C28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" s="7" t="e">
+        <f>D29/D28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E30" s="7" t="e">
+        <f>E29/E28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" s="7" t="e">
+        <f>F29/F28</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="7" t="e">
-        <f>B29/B26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C31" s="7" t="e">
-        <f t="shared" ref="C31:F31" si="2">C29/C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E31" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="7" t="e">
-        <f>B34/B4</f>
+        <f>B31/B28</f>
         <v>#VALUE!</v>
       </c>
       <c r="C33" s="7" t="e">
-        <f>C34/C4</f>
+        <f t="shared" ref="C33:F33" si="3">C31/C28</f>
         <v>#VALUE!</v>
       </c>
       <c r="D33" s="7" t="e">
-        <f>D34/D4</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="E33" s="7" t="e">
-        <f>E34/E4</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="7" t="e">
-        <f>F34/F4</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>112</v>
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="7" t="e">
+        <f>B36/B4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C35" s="7" t="e">
+        <f>C36/C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D35" s="7" t="e">
+        <f>D36/D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E35" s="7" t="e">
+        <f>E36/E4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" s="7" t="e">
+        <f>F36/F4</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="2" t="e">
-        <f>B41+B42+B43+B44+B48+B49</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C40" s="2" t="e">
-        <f t="shared" ref="C40:F40" si="3">C41+C42+C43+C44+C48+C49</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D40" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E40" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B42" s="2" t="e">
+        <f>B43+B44+B45+B46+B50+B51</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" s="2" t="e">
+        <f t="shared" ref="C42:F42" si="4">C43+C44+C45+C46+C50+C51</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E42" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1811,8 +2140,8 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>143</v>
+      <c r="A48" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1821,14 +2150,34 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>14</v>
+      <c r="A49" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1836,5 +2185,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/reports/templates/daily.xlsx
+++ b/reports/templates/daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicestone/Sites/minimars-server/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B027032B-792E-7440-8211-DB3577389691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0896E53D-26EB-C842-9041-1141B84C1084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="500" windowWidth="21480" windowHeight="17500" xr2:uid="{4F58C902-78D5-2145-A3CE-3267BB3BABFE}"/>
   </bookViews>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B21" sqref="B21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1729,23 +1729,23 @@
         <v>7</v>
       </c>
       <c r="B21" s="7" t="e">
-        <f>B20/(B6+B8)</f>
+        <f>B20/(B6+B20)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C21" s="7" t="e">
-        <f>C20/(C6+C8)</f>
+        <f t="shared" ref="C21:F21" si="2">C20/(C6+C20)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D21" s="7" t="e">
-        <f>D20/(D6+D8)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="E21" s="7" t="e">
-        <f>E20/(E6+E8)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F21" s="7" t="e">
-        <f>F20/(F6+F8)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1779,19 +1779,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="C23" s="7" t="e">
-        <f t="shared" ref="C23:F23" si="2">C22/(C10-C20)</f>
+        <f t="shared" ref="C23:F23" si="3">C22/(C10-C20)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D23" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="E23" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="F23" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="G23" s="5"/>
@@ -1945,19 +1945,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="C33" s="7" t="e">
-        <f t="shared" ref="C33:F33" si="3">C31/C28</f>
+        <f t="shared" ref="C33:F33" si="4">C31/C28</f>
         <v>#VALUE!</v>
       </c>
       <c r="D33" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="E33" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2030,19 +2030,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="C42" s="2" t="e">
-        <f t="shared" ref="C42:F42" si="4">C43+C44+C45+C46+C50+C51</f>
+        <f t="shared" ref="C42:F42" si="5">C43+C44+C45+C46+C50+C51</f>
         <v>#VALUE!</v>
       </c>
       <c r="D42" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="E42" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="F42" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/reports/templates/daily.xlsx
+++ b/reports/templates/daily.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uicestone/Sites/minimars-server/reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0896E53D-26EB-C842-9041-1141B84C1084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A524E187-1C02-944F-9092-C1607C7D9F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="500" windowWidth="21480" windowHeight="17500" xr2:uid="{4F58C902-78D5-2145-A3CE-3267BB3BABFE}"/>
   </bookViews>
@@ -19,6 +19,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -311,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>天山店</t>
   </si>
@@ -900,6 +907,26 @@
   </si>
   <si>
     <t>会员续卡数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TS_foodSetsCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${JN_foodSetsCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BY_foodSetsCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${HX_foodSetsCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DY_foodSetsCount}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1332,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8EA64C-3023-A04F-8D77-D73A58D0B3BC}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1885,11 +1912,21 @@
       <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
